--- a/story/Activity Story 活动剧情/act7d5 Stories of Afternoon 午间逸话 午後の逸話/level_act7d5_st05.xlsx
+++ b/story/Activity Story 活动剧情/act7d5 Stories of Afternoon 午间逸话 午後の逸話/level_act7d5_st05.xlsx
@@ -2800,7 +2800,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Logistics Operator"]     "Combat operators of civilian origin who, within one year of working as a combat operator, find themselves unsuited to the role, may apply for reclassification as a logistics operator. It will be unconditionally approved."
+    <t xml:space="preserve">[name="Logistics Operator"]     'Combat operators of civilian origin who, within one year of working as a combat operator, find themselves unsuited to the role, may apply for reclassification as a logistics operator. It will be unconditionally approved.'
 </t>
   </si>
   <si>
@@ -3388,7 +3388,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Midnight"]     I'm not trying to be preachy. I'm definitely not qualified to preach. But wouldn't the "fashion guru" of Rhodes Island understand that?
+    <t xml:space="preserve">[name="Midnight"]     I'm not trying to be preachy. I'm definitely not qualified to preach. But wouldn't the 'fashion guru' of Rhodes Island understand that?
 </t>
   </si>
   <si>
@@ -3412,7 +3412,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Midnight"]     By the way, Spot. You asked me why I knew how to fight when I was just an "escort."
+    <t xml:space="preserve">[name="Midnight"]     By the way, Spot. You asked me why I knew how to fight when I was just an 'escort.'
 </t>
   </si>
   <si>
@@ -3584,7 +3584,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Spot"]     But you said "first time," which means there was a second time.
+    <t xml:space="preserve">[name="Spot"]     But you said 'first time,' which means there was a second time.
 </t>
   </si>
   <si>
@@ -3628,7 +3628,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Midnight"]     The second time he came looking for me, he was Infected himself. And he brought his "friends" with him.
+    <t xml:space="preserve">[name="Midnight"]     The second time he came looking for me, he was Infected himself. And he brought his 'friends' with him.
 </t>
   </si>
   <si>
@@ -3720,7 +3720,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Midnight"]     This would be a fine time to say "I'm training hard so I can be strong to defend you, Orchid," but I'd like you to think about something instead——
+    <t xml:space="preserve">[name="Midnight"]     This would be a fine time to say 'I'm training hard so I can be strong to defend you, Orchid,' but I'd like you to think about something instead——
 </t>
   </si>
   <si>
@@ -4792,7 +4792,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="오키드"]     의료팀에서는 나도 모르는 사이에 오리지늄 제품에 닿았을 거라고 하는데, 기억이 없어.
+    <t xml:space="preserve">[name="오키드"]     의료부에서는 나도 모르는 사이에 오리지늄 제품에 닿았을 거라고 하는데, 기억이 없어.
 </t>
   </si>
   <si>
@@ -4832,7 +4832,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="오키드"]     의료팀에 가서 물어봐야겠어. 아직 가망이 있을지도 몰라.
+    <t xml:space="preserve">[name="오키드"]     의료부에 가서 물어봐야겠어. 아직 가망이 있을지도 몰라.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act7d5 Stories of Afternoon 午间逸话 午後の逸話/level_act7d5_st05.xlsx
+++ b/story/Activity Story 活动剧情/act7d5 Stories of Afternoon 午间逸话 午後の逸話/level_act7d5_st05.xlsx
@@ -2680,7 +2680,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">9:39 PM Inside the Rhodes Island Landship
+    <t xml:space="preserve">9:39 P.M. Inside the Rhodes Island Landship
 </t>
   </si>
   <si>
@@ -3604,7 +3604,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Midnight"]     No. I didn't. It's just… I couldn't have expected what happened next.
+    <t xml:space="preserve">[name="Midnight"]     No. I didn't. It's just... I couldn't have expected what happened next.
 </t>
   </si>
   <si>
@@ -3872,7 +3872,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">6:23 PM Inside the Rhodes Island Landship
+    <t xml:space="preserve">6:23 P.M. Inside the Rhodes Island Landship
 </t>
   </si>
   <si>
